--- a/InputData/demodata.xlsx
+++ b/InputData/demodata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>InputData1</t>
   </si>
@@ -54,6 +54,33 @@
   </si>
   <si>
     <t>ValidateLandingPage</t>
+  </si>
+  <si>
+    <t>AddCandidate</t>
+  </si>
+  <si>
+    <t>DeleteCandidate</t>
+  </si>
+  <si>
+    <t>AddCompany</t>
+  </si>
+  <si>
+    <t>DeleteCompany</t>
+  </si>
+  <si>
+    <t>importCandidate</t>
+  </si>
+  <si>
+    <t>ViewReport</t>
+  </si>
+  <si>
+    <t>candidate1@mailinator..com</t>
+  </si>
+  <si>
+    <t>Atanu</t>
+  </si>
+  <si>
+    <t>Sarkar</t>
   </si>
 </sst>
 </file>
@@ -382,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,10 +461,54 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
